--- a/data/experiment/Transfers.history_DR.xlsx
+++ b/data/experiment/Transfers.history_DR.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RZM\Box Sync\JTL_Lab\Lab.Notebook\20170903_DR_Evolution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmoge\Box Sync\JTL_Lab\Lab.Notebook\20170903_DR_Evolution\data\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DCBBC7-42D6-4D25-908D-D42992F6D8B9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3740F5-6920-4D84-8E97-BD54FC7865F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
   <si>
     <t>Line ID</t>
   </si>
@@ -277,57 +283,6 @@
   </si>
   <si>
     <t>360-days plate</t>
-  </si>
-  <si>
-    <t>2-T-C06-D1-F-1</t>
-  </si>
-  <si>
-    <t>200-days stock</t>
-  </si>
-  <si>
-    <t>4/23-5/03</t>
-  </si>
-  <si>
-    <t>400-day stock</t>
-  </si>
-  <si>
-    <t>6/02-6/12</t>
-  </si>
-  <si>
-    <t>D-230 plate</t>
-  </si>
-  <si>
-    <t>D360 stock</t>
-  </si>
-  <si>
-    <t>D230 stock</t>
-  </si>
-  <si>
-    <t>D330 plate</t>
-  </si>
-  <si>
-    <t>7/12-7/22</t>
-  </si>
-  <si>
-    <t>2-T-D04-D1-J-5</t>
-  </si>
-  <si>
-    <t>D400 stock purified</t>
-  </si>
-  <si>
-    <t>Contamination with slow grower</t>
-  </si>
-  <si>
-    <t>D200-stock</t>
-  </si>
-  <si>
-    <t>D330 stock</t>
-  </si>
-  <si>
-    <t>2-T-D11-D1-C-5</t>
-  </si>
-  <si>
-    <t>D400 stock</t>
   </si>
   <si>
     <t>All</t>
@@ -1138,7 +1093,7 @@
   <dimension ref="B2:X92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+      <selection activeCell="S107" sqref="S107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1487,7 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="87" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C10" s="6">
         <v>43006</v>
@@ -1541,13 +1496,13 @@
         <v>43006</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="59" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="H10" s="89">
         <f>H2+1</f>
@@ -1616,7 +1571,7 @@
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="51" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C11" s="6">
         <v>43008</v>
@@ -1631,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H11" s="89">
         <f>H2+F10+F11+F36+F39+F45</f>
@@ -1700,7 +1655,7 @@
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="74" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C12" s="6">
         <v>43010</v>
@@ -1715,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H12" s="89">
         <f>H2+F10+F12+F36+F39+F45+F52</f>
@@ -2041,7 +1996,7 @@
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="74" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C20" s="6">
         <v>43014</v>
@@ -2056,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="59" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="H20" s="89">
         <f>H2+F10+F20+F36+F39+F45+F52</f>
@@ -2677,7 +2632,7 @@
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="88" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C36" s="7">
         <v>43021</v>
@@ -2692,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="63" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="H36" s="89">
         <f>H2+F10+F36</f>
@@ -2761,7 +2716,7 @@
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="51" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C37" s="6">
         <v>43021</v>
@@ -2776,7 +2731,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="59" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="H37" s="89">
         <f>H2+F37+F36+F10</f>
@@ -2845,7 +2800,7 @@
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" s="51" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C38" s="6">
         <v>43034</v>
@@ -2860,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="59" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H38" s="89">
         <f>H2+F10+F36+F37+F38+F39+F45+F52</f>
@@ -2929,7 +2884,7 @@
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" s="87" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C39" s="6">
         <v>43041</v>
@@ -2944,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="63" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="H39" s="89">
         <f>H36+1</f>
@@ -2986,7 +2941,7 @@
         <v>43389</v>
       </c>
       <c r="R39" s="89">
-        <f t="shared" ref="R39:S64" si="12">Q39+30</f>
+        <f t="shared" ref="R39:S39" si="12">Q39+30</f>
         <v>43419</v>
       </c>
       <c r="S39" s="89">
@@ -3120,7 +3075,7 @@
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="74" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C42" s="6">
         <v>43073</v>
@@ -3135,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="63" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H42" s="89">
         <f>H2+F10+F36+F39+F42+F45+F52</f>
@@ -3297,7 +3252,7 @@
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="88" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C45" s="7">
         <v>43073</v>
@@ -3312,7 +3267,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="63" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="H45" s="89">
         <f>H39+F45</f>
@@ -3436,22 +3391,22 @@
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="74" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C47" s="6">
         <v>42736</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F47" s="3">
         <v>27</v>
       </c>
       <c r="G47" s="64" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="H47" s="89">
         <f>H2+F10+F36+F39+F45+F47+F52</f>
@@ -3608,7 +3563,7 @@
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50" s="51" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2">
         <v>43121</v>
@@ -3623,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="64" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H50" s="89">
         <f>H2+F10+F11+F36+F39+F45+F50+F52</f>
@@ -3692,7 +3647,7 @@
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51" s="74" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C51" s="2">
         <v>43121</v>
@@ -3707,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="64" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H51" s="89">
         <f>H2+F10+F36+F39+F45+F51+F52</f>
@@ -3776,7 +3731,7 @@
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" s="87" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C52" s="2">
         <v>43128</v>
@@ -3791,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="63" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="H52" s="89">
         <f>H2+F10+F36+F39+F45+F52</f>
@@ -3860,7 +3815,7 @@
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53" s="51" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2">
         <v>43150</v>
@@ -3875,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="64" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H53" s="89">
         <f>H2+F10+F36+F39+F45+F52+F53</f>
@@ -3988,7 +3943,7 @@
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B55" s="87" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C55" s="2">
         <v>43169</v>
@@ -4000,10 +3955,10 @@
         <v>43168</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G55" s="64" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="H55" s="89">
         <f>H52+10</f>
@@ -4350,7 +4305,7 @@
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B62" s="92" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C62" s="2">
         <v>43171</v>
@@ -4365,7 +4320,7 @@
         <v>8</v>
       </c>
       <c r="G62" s="65" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="H62" s="91">
         <f>H47+8+F64</f>
@@ -4478,7 +4433,7 @@
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2">
         <v>43191</v>
@@ -4489,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="59" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="H64" s="91">
         <f>H55+F64</f>
@@ -4934,453 +4889,188 @@
       <c r="W71" s="35"/>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B72" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" s="2">
-        <v>42888</v>
-      </c>
-      <c r="D72" s="2">
-        <v>42888</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F72" s="1">
-        <v>230</v>
-      </c>
-      <c r="G72" s="65" t="s">
-        <v>29</v>
-      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="65"/>
       <c r="H72" s="41"/>
-      <c r="I72" s="28">
-        <v>42558</v>
-      </c>
+      <c r="I72" s="28"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="80">
-        <v>42658</v>
-      </c>
+      <c r="K72" s="80"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
-      <c r="N72" s="84">
-        <f>$N$2+F72</f>
-        <v>43518</v>
-      </c>
+      <c r="N72" s="84"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
-      <c r="Q72" s="28">
-        <f>$Q$2+F72</f>
-        <v>43618</v>
-      </c>
+      <c r="Q72" s="28"/>
       <c r="R72" s="6"/>
       <c r="S72" s="1"/>
-      <c r="T72" s="24">
-        <f t="shared" si="13"/>
-        <v>43718</v>
-      </c>
+      <c r="T72" s="24"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
-      <c r="W72" s="24">
-        <f>T72+100</f>
-        <v>43818</v>
-      </c>
+      <c r="W72" s="24"/>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="2">
-        <v>42870</v>
-      </c>
-      <c r="D73" s="2">
-        <v>42878</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F73" s="1">
-        <v>320</v>
-      </c>
-      <c r="G73" s="66" t="s">
-        <v>29</v>
-      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="66"/>
       <c r="H73" s="41"/>
-      <c r="I73" s="27">
-        <v>42558</v>
-      </c>
+      <c r="I73" s="27"/>
       <c r="J73" s="6"/>
-      <c r="K73" s="80">
-        <f>$K$2+F73</f>
-        <v>43508</v>
-      </c>
+      <c r="K73" s="80"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
-      <c r="N73" s="80">
-        <f t="shared" ref="N73:N75" si="27">$N$2+F73</f>
-        <v>43608</v>
-      </c>
+      <c r="N73" s="80"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
-      <c r="Q73" s="28">
-        <f t="shared" ref="Q73:Q75" si="28">$Q$2+F73</f>
-        <v>43708</v>
-      </c>
+      <c r="Q73" s="28"/>
       <c r="R73" s="6"/>
       <c r="S73" s="1"/>
-      <c r="T73" s="24">
-        <f t="shared" si="13"/>
-        <v>43808</v>
-      </c>
+      <c r="T73" s="24"/>
       <c r="U73" s="2"/>
       <c r="V73" s="1"/>
-      <c r="W73" s="24">
-        <f>T73+100</f>
-        <v>43908</v>
-      </c>
+      <c r="W73" s="24"/>
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="2">
-        <v>42870</v>
-      </c>
-      <c r="D74" s="2">
-        <v>42878</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F74" s="1">
-        <v>320</v>
-      </c>
-      <c r="G74" s="65" t="s">
-        <v>29</v>
-      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="65"/>
       <c r="H74" s="41"/>
-      <c r="I74" s="27">
-        <v>42558</v>
-      </c>
+      <c r="I74" s="27"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="80">
-        <f t="shared" ref="K74:K75" si="29">$K$2+F74</f>
-        <v>43508</v>
-      </c>
+      <c r="K74" s="80"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
-      <c r="N74" s="80">
-        <f t="shared" si="27"/>
-        <v>43608</v>
-      </c>
+      <c r="N74" s="80"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
-      <c r="Q74" s="28">
-        <f t="shared" si="28"/>
-        <v>43708</v>
-      </c>
+      <c r="Q74" s="28"/>
       <c r="R74" s="6"/>
       <c r="S74" s="1"/>
-      <c r="T74" s="24">
-        <f t="shared" si="13"/>
-        <v>43808</v>
-      </c>
+      <c r="T74" s="24"/>
       <c r="U74" s="2"/>
       <c r="V74" s="1"/>
-      <c r="W74" s="24">
-        <f>T74+100</f>
-        <v>43908</v>
-      </c>
+      <c r="W74" s="24"/>
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" s="2">
-        <v>42865</v>
-      </c>
-      <c r="D75" s="2">
-        <v>42868</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F75" s="1">
-        <v>210</v>
-      </c>
-      <c r="G75" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="H75" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="I75" s="28">
-        <v>42558</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K75" s="80">
-        <f t="shared" si="29"/>
-        <v>43398</v>
-      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="80"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
-      <c r="N75" s="80">
-        <f t="shared" si="27"/>
-        <v>43498</v>
-      </c>
+      <c r="N75" s="80"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
-      <c r="Q75" s="28">
-        <f t="shared" si="28"/>
-        <v>43598</v>
-      </c>
+      <c r="Q75" s="28"/>
       <c r="R75" s="6"/>
       <c r="S75" s="1"/>
-      <c r="T75" s="24">
-        <f t="shared" ref="T75" si="30">$T$2+F75</f>
-        <v>43698</v>
-      </c>
+      <c r="T75" s="24"/>
       <c r="U75" s="2"/>
       <c r="V75" s="1"/>
-      <c r="W75" s="24">
-        <f>T75+100</f>
-        <v>43798</v>
-      </c>
+      <c r="W75" s="24"/>
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B76" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76" s="7">
-        <v>42878</v>
-      </c>
-      <c r="D76" s="7">
-        <v>42878</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F76" s="9">
-        <v>120</v>
-      </c>
-      <c r="G76" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="H76" s="7">
-        <v>42568</v>
-      </c>
-      <c r="I76" s="27">
-        <v>42618</v>
-      </c>
-      <c r="J76" s="7">
-        <v>42718</v>
-      </c>
-      <c r="K76" s="81">
-        <v>42768</v>
-      </c>
-      <c r="L76" s="7">
-        <v>42798</v>
-      </c>
-      <c r="M76" s="7">
-        <v>42828</v>
-      </c>
-      <c r="N76" s="81">
-        <v>42868</v>
-      </c>
-      <c r="O76" s="6">
-        <f>O2+$F$76</f>
-        <v>43438</v>
-      </c>
-      <c r="P76" s="6">
-        <f t="shared" ref="P76:T76" si="31">P2+$F$76</f>
-        <v>43468</v>
-      </c>
-      <c r="Q76" s="28">
-        <f t="shared" si="31"/>
-        <v>43508</v>
-      </c>
-      <c r="R76" s="44">
-        <f t="shared" si="31"/>
-        <v>43538</v>
-      </c>
-      <c r="S76" s="6">
-        <f t="shared" si="31"/>
-        <v>43568</v>
-      </c>
-      <c r="T76" s="28">
-        <f t="shared" si="31"/>
-        <v>43608</v>
-      </c>
-      <c r="U76" s="2">
-        <f>T76+30</f>
-        <v>43638</v>
-      </c>
-      <c r="V76" s="2">
-        <f>U76+30</f>
-        <v>43668</v>
-      </c>
-      <c r="W76" s="24">
-        <f>V76+40</f>
-        <v>43708</v>
-      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="81"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="81"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="28"/>
+      <c r="R76" s="44"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="28"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="24"/>
     </row>
     <row r="77" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C77" s="2">
-        <v>42888</v>
-      </c>
-      <c r="D77" s="2">
-        <v>42898</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F77" s="1">
-        <v>40</v>
-      </c>
-      <c r="G77" s="59" t="s">
-        <v>69</v>
-      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="59"/>
       <c r="H77" s="41"/>
-      <c r="I77" s="28">
-        <v>42558</v>
-      </c>
+      <c r="I77" s="28"/>
       <c r="J77" s="6"/>
-      <c r="K77" s="80">
-        <f>I77+100</f>
-        <v>42658</v>
-      </c>
+      <c r="K77" s="80"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
-      <c r="N77" s="80">
-        <v>42778</v>
-      </c>
+      <c r="N77" s="80"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
-      <c r="Q77" s="28">
-        <v>42878</v>
-      </c>
+      <c r="Q77" s="28"/>
       <c r="R77" s="6"/>
       <c r="S77" s="1"/>
-      <c r="T77" s="47">
-        <f>T2+F77</f>
-        <v>43528</v>
-      </c>
-      <c r="U77" s="2">
-        <f>T77+30</f>
-        <v>43558</v>
-      </c>
-      <c r="V77" s="2">
-        <f>U77+30</f>
-        <v>43588</v>
-      </c>
-      <c r="W77" s="24">
-        <f>V77+40</f>
-        <v>43628</v>
-      </c>
+      <c r="T77" s="47"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="24"/>
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" s="2">
-        <v>42909</v>
-      </c>
-      <c r="D78" s="2">
-        <v>42911</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F78" s="1">
-        <v>250</v>
-      </c>
-      <c r="G78" s="66" t="s">
-        <v>29</v>
-      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="66"/>
       <c r="H78" s="41"/>
-      <c r="I78" s="28">
-        <v>42558</v>
-      </c>
+      <c r="I78" s="28"/>
       <c r="J78" s="6"/>
-      <c r="K78" s="80">
-        <f>I78+100</f>
-        <v>42658</v>
-      </c>
+      <c r="K78" s="80"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
-      <c r="N78" s="84">
-        <f>N2+F78</f>
-        <v>43538</v>
-      </c>
+      <c r="N78" s="84"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
-      <c r="Q78" s="28">
-        <f>Q2+F78</f>
-        <v>43638</v>
-      </c>
+      <c r="Q78" s="28"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
-      <c r="T78" s="28">
-        <f t="shared" ref="T78" si="32">$T$2+F78</f>
-        <v>43738</v>
-      </c>
+      <c r="T78" s="28"/>
       <c r="U78" s="2"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="24">
-        <f>T78+100</f>
-        <v>43838</v>
-      </c>
+      <c r="W78" s="24"/>
     </row>
     <row r="79" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C79" s="20">
-        <v>42909</v>
-      </c>
-      <c r="D79" s="20">
-        <v>42909</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F79" s="19">
-        <v>140</v>
-      </c>
-      <c r="G79" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" s="5">
-        <v>42508</v>
-      </c>
-      <c r="I79" s="29">
-        <v>42558</v>
-      </c>
-      <c r="J79" s="5">
-        <f>$J$2+F79</f>
-        <v>43278</v>
-      </c>
-      <c r="K79" s="77">
-        <v>42788</v>
-      </c>
-      <c r="L79" s="5">
-        <v>42818</v>
-      </c>
-      <c r="M79" s="5">
-        <v>42848</v>
-      </c>
-      <c r="N79" s="77">
-        <f>N2+130</f>
-        <v>43418</v>
-      </c>
-      <c r="O79" s="5">
-        <f t="shared" ref="O79" si="33">O2+$F$79</f>
-        <v>43458</v>
-      </c>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="77"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="77"/>
+      <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="37"/>
       <c r="R79" s="20"/>
@@ -5391,39 +5081,17 @@
       <c r="W79" s="35"/>
     </row>
     <row r="80" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C80" s="20">
-        <v>42899</v>
-      </c>
-      <c r="D80" s="20">
-        <v>42878</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F80" s="19">
-        <v>190</v>
-      </c>
-      <c r="G80" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H80" s="5">
-        <v>42508</v>
-      </c>
-      <c r="I80" s="29">
-        <v>42558</v>
-      </c>
-      <c r="J80" s="5">
-        <v>42748</v>
-      </c>
-      <c r="K80" s="77">
-        <v>42788</v>
-      </c>
-      <c r="L80" s="5">
-        <v>42868</v>
-      </c>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="77"/>
+      <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="77"/>
       <c r="O80" s="5"/>
@@ -5437,56 +5105,21 @@
       <c r="W80" s="35"/>
     </row>
     <row r="81" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" s="13">
-        <v>42919</v>
-      </c>
-      <c r="D81" s="13">
-        <v>42928</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F81" s="14">
-        <v>110</v>
-      </c>
-      <c r="G81" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="H81" s="12">
-        <v>42508</v>
-      </c>
-      <c r="I81" s="30">
-        <v>42558</v>
-      </c>
-      <c r="J81" s="12">
-        <v>42618</v>
-      </c>
-      <c r="K81" s="79">
-        <f>I81+100</f>
-        <v>42658</v>
-      </c>
-      <c r="L81" s="12">
-        <f>K81+30</f>
-        <v>42688</v>
-      </c>
-      <c r="M81" s="12">
-        <f>L81+30</f>
-        <v>42718</v>
-      </c>
-      <c r="N81" s="79">
-        <f>K81+100</f>
-        <v>42758</v>
-      </c>
-      <c r="O81" s="12">
-        <f>N81+30</f>
-        <v>42788</v>
-      </c>
-      <c r="P81" s="12">
-        <v>42838</v>
-      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="79"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="79"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
       <c r="Q81" s="28"/>
       <c r="R81" s="42"/>
       <c r="S81" s="42"/>
@@ -5496,39 +5129,17 @@
       <c r="W81" s="35"/>
     </row>
     <row r="82" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" s="20">
-        <v>42919</v>
-      </c>
-      <c r="D82" s="20">
-        <v>42928</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F82" s="19">
-        <v>240</v>
-      </c>
-      <c r="G82" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="H82" s="5">
-        <v>42508</v>
-      </c>
-      <c r="I82" s="29">
-        <v>42558</v>
-      </c>
-      <c r="J82" s="5">
-        <v>42748</v>
-      </c>
-      <c r="K82" s="77">
-        <v>42788</v>
-      </c>
-      <c r="L82" s="5">
-        <v>42868</v>
-      </c>
+      <c r="B82" s="19"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="68"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="77"/>
+      <c r="L82" s="5"/>
       <c r="M82" s="6"/>
       <c r="N82" s="80"/>
       <c r="O82" s="6"/>
@@ -5542,39 +5153,17 @@
       <c r="W82" s="35"/>
     </row>
     <row r="83" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" s="13">
-        <v>42933</v>
-      </c>
-      <c r="D83" s="13">
-        <v>42938</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F83" s="14">
-        <v>250</v>
-      </c>
-      <c r="G83" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="H83" s="12">
-        <v>42508</v>
-      </c>
-      <c r="I83" s="30">
-        <v>42558</v>
-      </c>
-      <c r="J83" s="12">
-        <v>42748</v>
-      </c>
-      <c r="K83" s="79">
-        <v>42788</v>
-      </c>
-      <c r="L83" s="45">
-        <v>42868</v>
-      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="79"/>
+      <c r="L83" s="45"/>
       <c r="M83" s="6"/>
       <c r="N83" s="80"/>
       <c r="O83" s="42"/>
@@ -5588,48 +5177,20 @@
       <c r="W83" s="35"/>
     </row>
     <row r="84" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C84" s="13">
-        <v>42933</v>
-      </c>
-      <c r="D84" s="13">
-        <v>42938</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84" s="14">
-        <v>150</v>
-      </c>
-      <c r="G84" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="H84" s="12">
-        <v>42508</v>
-      </c>
-      <c r="I84" s="30">
-        <v>42558</v>
-      </c>
-      <c r="J84" s="12">
-        <v>42623</v>
-      </c>
-      <c r="K84" s="79">
-        <v>42748</v>
-      </c>
-      <c r="L84" s="12">
-        <v>42818</v>
-      </c>
-      <c r="M84" s="12">
-        <v>42848</v>
-      </c>
-      <c r="N84" s="79">
-        <v>42888</v>
-      </c>
-      <c r="O84" s="12">
-        <v>42918</v>
-      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="79"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="79"/>
+      <c r="O84" s="12"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="28"/>
       <c r="R84" s="6"/>
@@ -5640,53 +5201,21 @@
       <c r="W84" s="35"/>
     </row>
     <row r="85" spans="2:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C85" s="20">
-        <v>42939</v>
-      </c>
-      <c r="D85" s="20">
-        <v>42939</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F85" s="19">
-        <v>150</v>
-      </c>
-      <c r="G85" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="H85" s="5">
-        <v>42508</v>
-      </c>
-      <c r="I85" s="29">
-        <v>42558</v>
-      </c>
-      <c r="J85" s="5">
-        <v>42748</v>
-      </c>
-      <c r="K85" s="77">
-        <v>42788</v>
-      </c>
-      <c r="L85" s="5">
-        <v>42818</v>
-      </c>
-      <c r="M85" s="5">
-        <v>42848</v>
-      </c>
-      <c r="N85" s="77">
-        <f>O85-40</f>
-        <v>42888</v>
-      </c>
-      <c r="O85" s="5">
-        <v>42928</v>
-      </c>
-      <c r="P85" s="5">
-        <f>P2+$F$85</f>
-        <v>43498</v>
-      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="77"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="77"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
       <c r="Q85" s="73"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
@@ -5696,181 +5225,64 @@
       <c r="W85" s="37"/>
     </row>
     <row r="86" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86" s="2">
-        <v>42926</v>
-      </c>
-      <c r="D86" s="2">
-        <v>42958</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F86" s="1">
-        <v>100</v>
-      </c>
-      <c r="G86" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="H86" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="I86" s="24">
-        <v>42558</v>
-      </c>
-      <c r="J86" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K86" s="80">
-        <v>42658</v>
-      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="69"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="80"/>
       <c r="L86" s="6"/>
-      <c r="M86" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N86" s="80">
-        <f>K86+100</f>
-        <v>42758</v>
-      </c>
-      <c r="O86" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P86" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q86" s="28">
-        <v>42858</v>
-      </c>
-      <c r="R86" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S86" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T86" s="24">
-        <f>D86+100</f>
-        <v>43058</v>
-      </c>
+      <c r="M86" s="6"/>
+      <c r="N86" s="80"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="28"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="24"/>
       <c r="U86" s="2"/>
       <c r="V86" s="1"/>
-      <c r="W86" s="24">
-        <f>T86+100</f>
-        <v>43158</v>
-      </c>
+      <c r="W86" s="24"/>
     </row>
     <row r="87" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C87" s="2">
-        <v>42960</v>
-      </c>
-      <c r="D87" s="2">
-        <v>42968</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F87" s="1">
-        <v>150</v>
-      </c>
-      <c r="G87" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="H87" s="7">
-        <v>42508</v>
-      </c>
-      <c r="I87" s="27">
-        <v>42558</v>
-      </c>
-      <c r="J87" s="7">
-        <v>42618</v>
-      </c>
-      <c r="K87" s="81">
-        <f>I87+100</f>
-        <v>42658</v>
-      </c>
-      <c r="L87" s="7">
-        <f>K87+30</f>
-        <v>42688</v>
-      </c>
-      <c r="M87" s="7">
-        <f>L87+30</f>
-        <v>42718</v>
-      </c>
-      <c r="N87" s="81">
-        <f>K87+100</f>
-        <v>42758</v>
-      </c>
-      <c r="O87" s="7">
-        <f>N87+30</f>
-        <v>42788</v>
-      </c>
-      <c r="P87" s="7">
-        <v>42838</v>
-      </c>
-      <c r="Q87" s="47">
-        <f>Q2+$F$87</f>
-        <v>43538</v>
-      </c>
-      <c r="R87" s="42">
-        <f t="shared" ref="R87:T87" si="34">R2+$F$87</f>
-        <v>43568</v>
-      </c>
-      <c r="S87" s="42">
-        <f t="shared" si="34"/>
-        <v>43598</v>
-      </c>
-      <c r="T87" s="28">
-        <f t="shared" si="34"/>
-        <v>43638</v>
-      </c>
-      <c r="U87" s="2">
-        <f>T87+30</f>
-        <v>43668</v>
-      </c>
-      <c r="V87" s="2">
-        <f>U87+30</f>
-        <v>43698</v>
-      </c>
-      <c r="W87" s="24">
-        <f>V87+40</f>
-        <v>43738</v>
-      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="81"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="81"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="47"/>
+      <c r="R87" s="42"/>
+      <c r="S87" s="42"/>
+      <c r="T87" s="28"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="24"/>
     </row>
     <row r="88" spans="2:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C88" s="20">
-        <v>42960</v>
-      </c>
-      <c r="D88" s="20">
-        <v>42968</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F88" s="19">
-        <v>310</v>
-      </c>
-      <c r="G88" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="H88" s="5">
-        <v>42508</v>
-      </c>
-      <c r="I88" s="29">
-        <v>42558</v>
-      </c>
-      <c r="J88" s="5">
-        <v>42748</v>
-      </c>
-      <c r="K88" s="77">
-        <v>42788</v>
-      </c>
+      <c r="B88" s="19"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="77"/>
       <c r="L88" s="5"/>
       <c r="M88" s="20"/>
       <c r="N88" s="85"/>
@@ -5885,268 +5297,94 @@
       <c r="W88" s="37"/>
     </row>
     <row r="89" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C89" s="2">
-        <v>42960</v>
-      </c>
-      <c r="D89" s="2">
-        <v>42968</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F89" s="1">
-        <v>180</v>
-      </c>
-      <c r="G89" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="H89" s="7">
-        <v>42508</v>
-      </c>
-      <c r="I89" s="27">
-        <v>42558</v>
-      </c>
-      <c r="J89" s="7">
-        <v>42623</v>
-      </c>
-      <c r="K89" s="81">
-        <v>42748</v>
-      </c>
-      <c r="L89" s="7">
-        <v>42818</v>
-      </c>
-      <c r="M89" s="7">
-        <v>42848</v>
-      </c>
-      <c r="N89" s="81">
-        <v>42888</v>
-      </c>
-      <c r="O89" s="7">
-        <v>42918</v>
-      </c>
-      <c r="P89" s="44">
-        <f>P2+$F$89</f>
-        <v>43528</v>
-      </c>
-      <c r="Q89" s="53">
-        <f t="shared" ref="Q89:T89" si="35">Q2+$F$89</f>
-        <v>43568</v>
-      </c>
-      <c r="R89" s="2">
-        <f t="shared" si="35"/>
-        <v>43598</v>
-      </c>
-      <c r="S89" s="2">
-        <f t="shared" si="35"/>
-        <v>43628</v>
-      </c>
-      <c r="T89" s="24">
-        <f t="shared" si="35"/>
-        <v>43668</v>
-      </c>
-      <c r="U89" s="2">
-        <f>T89+30</f>
-        <v>43698</v>
-      </c>
-      <c r="V89" s="2">
-        <v>43078</v>
-      </c>
-      <c r="W89" s="24">
-        <f>V89+40</f>
-        <v>43118</v>
-      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="81"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="81"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="44"/>
+      <c r="Q89" s="53"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="24"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="24"/>
     </row>
     <row r="90" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C90" s="2">
-        <v>42960</v>
-      </c>
-      <c r="D90" s="2">
-        <v>42968</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" s="1">
-        <v>110</v>
-      </c>
-      <c r="G90" s="63" t="s">
-        <v>29</v>
-      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="63"/>
       <c r="H90" s="54"/>
-      <c r="I90" s="24">
-        <v>42558</v>
-      </c>
+      <c r="I90" s="24"/>
       <c r="J90" s="1"/>
-      <c r="K90" s="82">
-        <v>42658</v>
-      </c>
+      <c r="K90" s="82"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
-      <c r="N90" s="82">
-        <v>42758</v>
-      </c>
+      <c r="N90" s="82"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
-      <c r="Q90" s="24">
-        <v>42858</v>
-      </c>
+      <c r="Q90" s="24"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
-      <c r="T90" s="24">
-        <f>T2+$F90</f>
-        <v>43598</v>
-      </c>
+      <c r="T90" s="24"/>
       <c r="U90" s="2"/>
       <c r="V90" s="1"/>
-      <c r="W90" s="24">
-        <f>T90+100</f>
-        <v>43698</v>
-      </c>
+      <c r="W90" s="24"/>
     </row>
     <row r="91" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>61</v>
-      </c>
-      <c r="C91" s="38">
-        <v>42979</v>
-      </c>
+      <c r="C91" s="38"/>
       <c r="F91" s="72"/>
-      <c r="G91" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="H91" s="7">
-        <v>42508</v>
-      </c>
-      <c r="I91" s="27">
-        <v>42558</v>
-      </c>
-      <c r="J91" s="7">
-        <v>42748</v>
-      </c>
-      <c r="K91" s="81">
-        <v>42788</v>
-      </c>
-      <c r="L91" s="70">
-        <f>L$2+$F91</f>
-        <v>43218</v>
-      </c>
-      <c r="M91" s="70">
-        <f t="shared" ref="M91:W92" si="36">M$2+$F91</f>
-        <v>43248</v>
-      </c>
-      <c r="N91" s="86">
-        <f t="shared" si="36"/>
-        <v>43288</v>
-      </c>
-      <c r="O91" s="70">
-        <f t="shared" si="36"/>
-        <v>43318</v>
-      </c>
-      <c r="P91" s="70">
-        <f t="shared" si="36"/>
-        <v>43348</v>
-      </c>
-      <c r="Q91" s="71">
-        <f t="shared" si="36"/>
-        <v>43388</v>
-      </c>
-      <c r="R91" s="70">
-        <f t="shared" si="36"/>
-        <v>43418</v>
-      </c>
-      <c r="S91" s="70">
-        <f t="shared" si="36"/>
-        <v>43448</v>
-      </c>
-      <c r="T91" s="71">
-        <f t="shared" si="36"/>
-        <v>43488</v>
-      </c>
-      <c r="U91" s="70">
-        <f t="shared" si="36"/>
-        <v>43518</v>
-      </c>
-      <c r="V91" s="70">
-        <f t="shared" si="36"/>
-        <v>43548</v>
-      </c>
-      <c r="W91" s="71">
-        <f t="shared" si="36"/>
-        <v>43588</v>
-      </c>
+      <c r="G91" s="63"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="81"/>
+      <c r="L91" s="70"/>
+      <c r="M91" s="70"/>
+      <c r="N91" s="86"/>
+      <c r="O91" s="70"/>
+      <c r="P91" s="70"/>
+      <c r="Q91" s="71"/>
+      <c r="R91" s="70"/>
+      <c r="S91" s="70"/>
+      <c r="T91" s="71"/>
+      <c r="U91" s="70"/>
+      <c r="V91" s="70"/>
+      <c r="W91" s="71"/>
     </row>
     <row r="92" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>40</v>
-      </c>
-      <c r="C92" s="38">
-        <v>42979</v>
-      </c>
+      <c r="C92" s="38"/>
       <c r="F92" s="72"/>
-      <c r="G92" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="H92" s="7">
-        <v>42508</v>
-      </c>
-      <c r="I92" s="27">
-        <v>42558</v>
-      </c>
-      <c r="J92" s="7">
-        <v>42748</v>
-      </c>
-      <c r="K92" s="81">
-        <v>42788</v>
-      </c>
-      <c r="L92" s="7">
-        <v>42818</v>
-      </c>
-      <c r="M92" s="7">
-        <v>42848</v>
-      </c>
-      <c r="N92" s="81">
-        <v>42888</v>
-      </c>
-      <c r="O92" s="7">
-        <v>42928</v>
-      </c>
-      <c r="P92" s="6">
-        <v>42968</v>
-      </c>
-      <c r="Q92" s="71">
-        <f>Q$2+$F92</f>
-        <v>43388</v>
-      </c>
-      <c r="R92" s="70">
-        <f t="shared" si="36"/>
-        <v>43418</v>
-      </c>
-      <c r="S92" s="70">
-        <f t="shared" si="36"/>
-        <v>43448</v>
-      </c>
-      <c r="T92" s="71">
-        <f t="shared" si="36"/>
-        <v>43488</v>
-      </c>
-      <c r="U92" s="70">
-        <f t="shared" si="36"/>
-        <v>43518</v>
-      </c>
-      <c r="V92" s="70">
-        <f t="shared" si="36"/>
-        <v>43548</v>
-      </c>
-      <c r="W92" s="71">
-        <f t="shared" si="36"/>
-        <v>43588</v>
-      </c>
+      <c r="G92" s="69"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="81"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="81"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="71"/>
+      <c r="R92" s="70"/>
+      <c r="S92" s="70"/>
+      <c r="T92" s="71"/>
+      <c r="U92" s="70"/>
+      <c r="V92" s="70"/>
+      <c r="W92" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
